--- a/DateBase/orders/name001_2024-10-11.xlsx
+++ b/DateBase/orders/name001_2024-10-11.xlsx
@@ -513,6 +513,9 @@
         <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
 white_Trachymene Coerulea_1bunch</v>
       </c>
+      <c r="F10" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -574,7 +577,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>012131213121112110</v>
+        <v>012131213121112111</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-10-11.xlsx
+++ b/DateBase/orders/name001_2024-10-11.xlsx
@@ -514,7 +514,7 @@
 white_Trachymene Coerulea_1bunch</v>
       </c>
       <c r="F10" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -577,7 +577,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>012131213121112111</v>
+        <v>0121312131211121110</v>
       </c>
     </row>
   </sheetData>
